--- a/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
+++ b/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Desktop/UniGit/Psychologie/3/Praktikum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFDBE76-2687-CC43-BF12-5A6B4EA3532A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4663630-1E6A-974B-BD92-E2E0EC4EB1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>23.10.</t>
+  </si>
+  <si>
+    <t>25.10.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,10 +412,184 @@
         <v>5.2083333333333315E-2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D27" si="0">C2-B2</f>
+        <v>0.15277777777777773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19444444444444442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" s="1">
         <f>SUM(D1:D27)</f>
-        <v>5.2083333333333315E-2</v>
+        <v>0.39930555555555547</v>
       </c>
     </row>
   </sheetData>

--- a/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
+++ b/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Desktop/UniGit/Psychologie/3/Praktikum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4663630-1E6A-974B-BD92-E2E0EC4EB1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C38A56D-2079-6244-A051-6D7EDC3C94AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>23.10.</t>
   </si>
   <si>
     <t>25.10.</t>
+  </si>
+  <si>
+    <t>29.10.</t>
   </si>
 </sst>
 </file>
@@ -389,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A299EB-57DD-CF48-8AAE-E80EC47A7ADA}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,14 +408,25 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C1" s="1">
-        <v>0.46875</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>C1-B1</f>
-        <v>5.2083333333333315E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="E1" s="1">
+        <f>D1</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <f>E1-F1</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -427,7 +441,7 @@
         <v>0.15277777777777773</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -435,161 +449,321 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="C3" s="1">
-        <v>0.71875</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
-        <v>0.19444444444444442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G3" s="1">
+        <f>E3-F3</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.65972222222222221</v>
+      </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D4+D5</f>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G5" s="1">
+        <f>E5-F5</f>
+        <v>-4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <f>D6+D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G7" s="1">
+        <f>E7-F7</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="1">
+        <f>D8+D9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G9" s="1">
+        <f>E9-F9</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="1">
+        <f>D10+D11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G11" s="1">
+        <f>E11-F11</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="1">
+        <f>D12+D13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G13" s="1">
+        <f>E13-F13</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="1">
+        <f>D14+D15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G15" s="1">
+        <f>E15-F15</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
+        <f>D16+D17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G17" s="1">
+        <f>E17-F17</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
+        <f>D18+D19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G19" s="1">
+        <f>E19-F19</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="1">
+        <f>D20+D21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G21" s="1">
+        <f>E21-F21</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="1">
+        <f>D22+D23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G23" s="1">
+        <f>E23-F23</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="1">
+        <f>D24+D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G25" s="1">
+        <f>E25-F25</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D26" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="1">
+        <f>D26+D27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G27" s="1">
+        <f>E27-F27</f>
+        <v>-0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D28" s="1">
         <f>SUM(D1:D27)</f>
-        <v>0.39930555555555547</v>
+        <v>0.74652777777777757</v>
       </c>
     </row>
   </sheetData>

--- a/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
+++ b/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Desktop/UniGit/Psychologie/3/Praktikum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C38A56D-2079-6244-A051-6D7EDC3C94AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA681FBD-CB90-6C48-B56C-2582FC9759E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>23.10.</t>
   </si>
@@ -40,6 +40,51 @@
   </si>
   <si>
     <t>29.10.</t>
+  </si>
+  <si>
+    <t>1.11.</t>
+  </si>
+  <si>
+    <t>"-1:00"</t>
+  </si>
+  <si>
+    <t>"-0:25"</t>
+  </si>
+  <si>
+    <t>5.11.</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>"-2:25</t>
+  </si>
+  <si>
+    <t>Woche 1</t>
+  </si>
+  <si>
+    <t>Woche 2</t>
+  </si>
+  <si>
+    <t>7.11.</t>
+  </si>
+  <si>
+    <t>"+00:10"</t>
+  </si>
+  <si>
+    <t>"+3:35"</t>
+  </si>
+  <si>
+    <t>8.11.</t>
+  </si>
+  <si>
+    <t>"-1:05</t>
+  </si>
+  <si>
+    <t>Woche 3</t>
   </si>
 </sst>
 </file>
@@ -392,15 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A299EB-57DD-CF48-8AAE-E80EC47A7ADA}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="3.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,15 +467,10 @@
         <f>D1</f>
         <v>7.291666666666663E-2</v>
       </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <f>E1-F1</f>
-        <v>7.291666666666663E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -437,11 +481,11 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D27" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D14" si="0">C2-B2</f>
         <v>0.15277777777777773</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -458,15 +502,22 @@
       <c r="E3" s="1">
         <v>0.3611111111111111</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G3" s="1">
-        <f>E3-F3</f>
-        <v>6.9444444444444198E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -481,7 +532,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -499,272 +550,281 @@
         <f>D4+D5</f>
         <v>0.31249999999999994</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="G5" s="1">
-        <f>E5-F5</f>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.15277777777777773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="E7" s="1">
         <f>D6+D7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G7" s="1">
-        <f>E7-F7</f>
-        <v>-0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.33680555555555552</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333326</v>
       </c>
       <c r="E9" s="1">
         <f>D8+D9</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G9" s="1">
-        <f>E9-F9</f>
-        <v>-0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.25694444444444436</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.46527777777777773</v>
+      </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.8611111111111049E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <f>D10+D11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G11" s="1">
-        <f>E11-F11</f>
-        <v>-0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.69097222222222221</v>
+      </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.51388888888888895</v>
+      </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <f>D12+D13</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G13" s="1">
-        <f>E13-F13</f>
-        <v>-0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <f>D14+D15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G15" s="1">
-        <f>E15-F15</f>
-        <v>-0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <f>D16+D17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G17" s="1">
-        <f>E17-F17</f>
-        <v>-0.35416666666666669</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <f>D18+D19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G19" s="1">
-        <f>E19-F19</f>
-        <v>-0.35416666666666669</v>
-      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <f>D20+D21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G21" s="1">
-        <f>E21-F21</f>
-        <v>-0.35416666666666669</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <f>D22+D23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G23" s="1">
-        <f>E23-F23</f>
-        <v>-0.35416666666666669</v>
-      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <f>D24+D25</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G25" s="1">
-        <f>E25-F25</f>
-        <v>-0.35416666666666669</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <f>D26+D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G27" s="1">
-        <f>E27-F27</f>
-        <v>-0.35416666666666669</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="1">
-        <f>SUM(D1:D27)</f>
-        <v>0.74652777777777757</v>
-      </c>
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
+++ b/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Desktop/UniGit/Psychologie/3/Praktikum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA681FBD-CB90-6C48-B56C-2582FC9759E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1002A86-A890-CB4B-AC5F-A676C27DCBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>23.10.</t>
   </si>
@@ -81,10 +81,28 @@
     <t>8.11.</t>
   </si>
   <si>
-    <t>"-1:05</t>
-  </si>
-  <si>
     <t>Woche 3</t>
+  </si>
+  <si>
+    <t>12.11.</t>
+  </si>
+  <si>
+    <t>"-4:05"</t>
+  </si>
+  <si>
+    <t>"-1:05"</t>
+  </si>
+  <si>
+    <t>14.11.</t>
+  </si>
+  <si>
+    <t>"+2:20"</t>
+  </si>
+  <si>
+    <t>15.11.</t>
+  </si>
+  <si>
+    <t>"-2:00"</t>
   </si>
 </sst>
 </file>
@@ -437,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A299EB-57DD-CF48-8AAE-E80EC47A7ADA}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +499,7 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D14" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D35" si="0">C2-B2</f>
         <v>0.15277777777777773</v>
       </c>
     </row>
@@ -751,7 +769,7 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
@@ -760,71 +778,233 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="L14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18402777777777785</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.18402777777777779</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.21875</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9.7222222222222224E-2</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.16319444444444445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16319444444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10763888888888895</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.27083333333333331</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="1"/>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.24652777777777779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D23" s="1"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="1"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D27" s="1"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="1"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
+++ b/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Desktop/UniGit/Psychologie/3/Praktikum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\UniGit\Psychologie\3\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA681FBD-CB90-6C48-B56C-2582FC9759E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BB8AA9-28E1-492F-AF12-95D5FB7107C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>1.11.</t>
   </si>
   <si>
-    <t>"-1:00"</t>
-  </si>
-  <si>
     <t>"-0:25"</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Woche 3</t>
+  </si>
+  <si>
+    <t>"+00:05"</t>
   </si>
 </sst>
 </file>
@@ -125,7 +125,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -443,13 +443,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="3.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="3.375" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,7 +485,7 @@
         <v>0.15277777777777773</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -505,19 +505,19 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -540,29 +540,29 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C5" s="1">
-        <v>0.65972222222222221</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.14583333333333326</v>
+        <v>0.19097222222222221</v>
       </c>
       <c r="E5" s="1">
         <f>D4+D5</f>
-        <v>0.31249999999999994</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1">
-        <v>3.4722222222222224E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -577,7 +577,7 @@
         <v>0.15277777777777773</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -598,21 +598,21 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.39583333333333331</v>
@@ -625,9 +625,9 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>0.52430555555555558</v>
@@ -646,18 +646,18 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1">
-        <v>0.15277777777777776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1076388888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>0.41666666666666669</v>
@@ -670,9 +670,9 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>0.49305555555555558</v>
@@ -688,9 +688,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>0.63888888888888895</v>
@@ -706,18 +706,18 @@
         <v>0.14930555555555555</v>
       </c>
       <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>0.33680555555555558</v>
@@ -733,9 +733,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0.53472222222222221</v>
@@ -751,79 +751,79 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L14" t="s">
         <v>16</v>
       </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
   </sheetData>

--- a/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
+++ b/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Desktop/UniGit/Psychologie/3/Praktikum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1002A86-A890-CB4B-AC5F-A676C27DCBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B741F3-73AC-3041-9F32-D3629DDD75BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>23.10.</t>
   </si>
@@ -103,6 +103,30 @@
   </si>
   <si>
     <t>"-2:00"</t>
+  </si>
+  <si>
+    <t>18.11.</t>
+  </si>
+  <si>
+    <t>"+1:10"</t>
+  </si>
+  <si>
+    <t>19.11.</t>
+  </si>
+  <si>
+    <t>"-1:30"</t>
+  </si>
+  <si>
+    <t>21.11.</t>
+  </si>
+  <si>
+    <t>"+2:30"</t>
+  </si>
+  <si>
+    <t>22.11.</t>
+  </si>
+  <si>
+    <t>"-0:55</t>
   </si>
 </sst>
 </file>
@@ -458,7 +482,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,54 +923,165 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.19791666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15277777777777768</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.26041666666666669</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.15625</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15277777777777773</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.67708333333333337</v>
+      </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16319444444444442</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.19444444444444445</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">

--- a/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
+++ b/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Desktop/UniGit/Psychologie/3/Praktikum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B741F3-73AC-3041-9F32-D3629DDD75BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB43A2C-D7F3-3449-9BB0-050754F16305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>23.10.</t>
   </si>
@@ -126,7 +126,19 @@
     <t>22.11.</t>
   </si>
   <si>
-    <t>"-0:55</t>
+    <t>26.11.</t>
+  </si>
+  <si>
+    <t>"-1:20"</t>
+  </si>
+  <si>
+    <t>"-0:55"</t>
+  </si>
+  <si>
+    <t>Woche 4</t>
+  </si>
+  <si>
+    <t>Woche 5</t>
   </si>
 </sst>
 </file>
@@ -482,7 +494,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,7 +861,7 @@
         <v>1.3888888888888951E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -878,7 +890,7 @@
         <v>0.16319444444444445</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -893,7 +905,7 @@
         <v>0.16319444444444442</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -921,8 +933,11 @@
       <c r="J19" s="1">
         <v>0.24652777777777779</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -949,7 +964,7 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -967,7 +982,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -994,7 +1009,7 @@
         <v>0.26041666666666669</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1012,7 +1027,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1039,7 +1054,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1072,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1075,7 +1090,7 @@
         <v>0.31597222222222221</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
@@ -1083,41 +1098,75 @@
       <c r="J26" s="1">
         <v>0.19444444444444445</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14236111111111105</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D27+D28</f>
+        <v>0.29861111111111105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D29" s="1">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D30" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D30" s="1">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D31" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" s="1">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
+++ b/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Desktop/UniGit/Psychologie/3/Praktikum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB43A2C-D7F3-3449-9BB0-050754F16305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C757EB7-8071-E947-B04F-4A8336D318BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>23.10.</t>
   </si>
@@ -90,15 +90,9 @@
     <t>"-4:05"</t>
   </si>
   <si>
-    <t>"-1:05"</t>
-  </si>
-  <si>
     <t>14.11.</t>
   </si>
   <si>
-    <t>"+2:20"</t>
-  </si>
-  <si>
     <t>15.11.</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>19.11.</t>
   </si>
   <si>
-    <t>"-1:30"</t>
-  </si>
-  <si>
     <t>21.11.</t>
   </si>
   <si>
@@ -139,6 +130,36 @@
   </si>
   <si>
     <t>Woche 5</t>
+  </si>
+  <si>
+    <t>28.11.</t>
+  </si>
+  <si>
+    <t>"+2:00"</t>
+  </si>
+  <si>
+    <t>29.11.</t>
+  </si>
+  <si>
+    <t>Woche 6</t>
+  </si>
+  <si>
+    <t>3.12.</t>
+  </si>
+  <si>
+    <t>"-1:15"</t>
+  </si>
+  <si>
+    <t>5.12.</t>
+  </si>
+  <si>
+    <t>"-0:05"</t>
+  </si>
+  <si>
+    <t>"+3:20"</t>
+  </si>
+  <si>
+    <t>"-0:30"</t>
   </si>
 </sst>
 </file>
@@ -491,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A299EB-57DD-CF48-8AAE-E80EC47A7ADA}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +556,7 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D35" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D41" si="0">C2-B2</f>
         <v>0.15277777777777773</v>
       </c>
     </row>
@@ -795,23 +816,23 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="C14" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.13194444444444442</v>
+        <v>0.17361111111111116</v>
       </c>
       <c r="E14" s="1">
-        <v>0.30902777777777779</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="1">
-        <v>4.8611111111111112E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -843,12 +864,12 @@
         <v>8</v>
       </c>
       <c r="J15" s="1">
-        <v>0.21875</v>
+        <v>0.17708333333333334</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>0.51736111111111105</v>
@@ -863,36 +884,36 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C17" s="1">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E17" s="1">
-        <v>9.7222222222222224E-2</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="1">
-        <v>0.16319444444444445</v>
+        <v>3.8194444444444441E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>0.33333333333333331</v>
@@ -907,7 +928,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>0.51736111111111105</v>
@@ -925,21 +946,21 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
       </c>
       <c r="J19" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.12152777777777778</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>0.39583333333333331</v>
@@ -955,18 +976,18 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
       </c>
       <c r="J20" s="1">
-        <v>0.19791666666666666</v>
+        <v>0.11458333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>0.35416666666666669</v>
@@ -984,34 +1005,34 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>0.51388888888888895</v>
       </c>
       <c r="C22" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>0.15277777777777768</v>
+        <v>0.19444444444444442</v>
       </c>
       <c r="E22" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>0.52083333333333337</v>
@@ -1029,7 +1050,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>0.625</v>
@@ -1045,18 +1066,18 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="1">
-        <v>0.15625</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>0.34375</v>
@@ -1074,7 +1095,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>0.51388888888888895</v>
@@ -1090,21 +1111,21 @@
         <v>0.31597222222222221</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="1">
-        <v>0.19444444444444445</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>0.35416666666666669</v>
@@ -1122,7 +1143,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>0.51041666666666663</v>
@@ -1139,53 +1160,194 @@
         <v>0.29861111111111105</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="1">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15972222222222215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15277777777777768</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18749999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D30" s="1">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D36" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D31" s="1">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D32" s="1">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D38" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="1">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D39" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="1">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D40" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="1">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D41" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
+++ b/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Desktop/UniGit/Psychologie/3/Praktikum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\UniGit\Psychologie\3\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C757EB7-8071-E947-B04F-4A8336D318BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE063E-F292-4F3E-918E-4161917E13BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>23.10.</t>
   </si>
@@ -160,6 +160,42 @@
   </si>
   <si>
     <t>"-0:30"</t>
+  </si>
+  <si>
+    <t>6.12.</t>
+  </si>
+  <si>
+    <t>14.12.</t>
+  </si>
+  <si>
+    <t>15.12.</t>
+  </si>
+  <si>
+    <t>16.12.</t>
+  </si>
+  <si>
+    <t>"+2:55"</t>
+  </si>
+  <si>
+    <t>17.12.</t>
+  </si>
+  <si>
+    <t>"-2:35"</t>
+  </si>
+  <si>
+    <t>23.12.</t>
+  </si>
+  <si>
+    <t>"+3:00"</t>
+  </si>
+  <si>
+    <t>27.12.</t>
+  </si>
+  <si>
+    <t>"-8:30"</t>
+  </si>
+  <si>
+    <t>5.1.</t>
   </si>
 </sst>
 </file>
@@ -200,7 +236,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,19 +548,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A299EB-57DD-CF48-8AAE-E80EC47A7ADA}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="3.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="3.375" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +581,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -556,11 +592,11 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D41" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D50" si="0">C2-B2</f>
         <v>0.15277777777777773</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -592,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -607,7 +643,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -637,7 +673,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -652,7 +688,7 @@
         <v>0.15277777777777773</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -685,7 +721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -700,7 +736,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -730,7 +766,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -745,7 +781,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -763,7 +799,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -790,7 +826,7 @@
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -808,7 +844,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -838,7 +874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -867,7 +903,7 @@
         <v>0.17708333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -882,7 +918,7 @@
         <v>1.3888888888888951E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -911,7 +947,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -926,7 +962,7 @@
         <v>0.16319444444444442</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -958,7 +994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -985,7 +1021,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1003,7 +1039,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1030,7 +1066,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1048,7 +1084,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1075,7 +1111,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1093,7 +1129,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1123,7 +1159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1177,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1169,7 +1205,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1196,7 +1232,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1211,7 +1247,7 @@
         <v>0.15972222222222215</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1241,7 +1277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1256,7 +1292,7 @@
         <v>0.18749999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1283,7 +1319,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1310,44 +1346,293 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15972222222222227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17013888888888895</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13888888888888895</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="1">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12152777777777768</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.12847222222222224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14930555555555558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="H42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12499999999999994</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
+      <c r="C44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D37" s="1">
+      <c r="D44" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
+      <c r="E44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D39" s="1">
+      <c r="H44" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D40" s="1">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D41" s="1">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
+++ b/Psychologie/3/Praktikum/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\UniGit\Psychologie\3\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE063E-F292-4F3E-918E-4161917E13BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF67F33-9C3E-4618-928A-69B4013AEAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EFF9E5C-2733-1A47-89B1-6CB2AF6C4831}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>23.10.</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>5.1.</t>
+  </si>
+  <si>
+    <t>6.1.</t>
+  </si>
+  <si>
+    <t>"+4:10"</t>
+  </si>
+  <si>
+    <t>7.1.</t>
+  </si>
+  <si>
+    <t>"-1:10"</t>
   </si>
 </sst>
 </file>
@@ -551,7 +563,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1608,21 +1620,72 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17361111111111116</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="H46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="1">
+        <v>6.9444444444444434E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16319444444444442</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.65625</v>
+      </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14236111111111105</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="H48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
